--- a/trabajos practicos/excel/Excel2025-TP3.xlsx
+++ b/trabajos practicos/excel/Excel2025-TP3.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\VSCode Projects\microsoftoffice\microsoftoffice\trabajos practicos\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B39271-5E90-427C-A3BC-216D76C13C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3E21B1-5780-4CE6-AF5C-E7DE022ABF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="0" windowWidth="16800" windowHeight="15495" activeTab="1" xr2:uid="{DF580297-8FA9-4B5E-8409-4F3A02463C1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF580297-8FA9-4B5E-8409-4F3A02463C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="1" r:id="rId1"/>
     <sheet name="Graficos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,10 +138,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy\ h:mm"/>
-    <numFmt numFmtId="171" formatCode="0\ &quot;Dias&quot;"/>
-    <numFmt numFmtId="172" formatCode="0\ &quot;Prod.&quot;"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ h:mm"/>
+    <numFmt numFmtId="166" formatCode="0\ &quot;Dias&quot;"/>
+    <numFmt numFmtId="167" formatCode="0\ &quot;Prod.&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -214,32 +214,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -906,7 +905,7 @@
                   <c:v>386.46249999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.021750000000011</c:v>
+                  <c:v>81.157124999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,7 +923,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -2539,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE219A-7CCE-40BF-BD89-83A89A696853}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,13 +2560,13 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">NOW()</f>
-        <v>45336.9658380787</v>
+        <v>45338.558994907406</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="1">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2576,53 +2575,53 @@
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="16" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2641,15 +2640,15 @@
       </c>
       <c r="E6" s="6">
         <f ca="1">DATEDIF(D6, B2, "d")</f>
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="F6" s="7">
         <v>6</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>18.25</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <f>IF(F6&gt;8,G6*15%,IF(F6&lt;5%,G6*5%,G6*15%))</f>
         <v>2.7374999999999998</v>
       </c>
@@ -2663,11 +2662,11 @@
       </c>
       <c r="K6" s="9">
         <f>J6*J$2</f>
-        <v>3.2521499999999999</v>
+        <v>3.1043249999999998</v>
       </c>
       <c r="L6" s="3">
         <f>(J6+K6)*F6</f>
-        <v>108.2079</v>
+        <v>107.32094999999998</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2685,15 +2684,15 @@
       </c>
       <c r="E7" s="6">
         <f ca="1">DATEDIF(D7, B2, "d")</f>
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="F7" s="7">
         <v>4</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10">
         <v>185.5</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="10">
         <f t="shared" ref="H7:H14" si="0">IF(F7&gt;8,G7*15%,IF(F7&lt;5%,G7*5%,G7*15%))</f>
         <v>27.824999999999999</v>
       </c>
@@ -2707,11 +2706,11 @@
       </c>
       <c r="K7" s="9">
         <f t="shared" ref="K7:K14" si="3">J7*J$2</f>
-        <v>34.688500000000005</v>
+        <v>33.111750000000001</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" ref="L7:L14" si="4">(J7+K7)*F7</f>
-        <v>769.45400000000006</v>
+        <v>763.14700000000005</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2729,15 +2728,15 @@
       </c>
       <c r="E8" s="6">
         <f ca="1">DATEDIF(D8,B2, "D")</f>
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="F8" s="7">
         <v>12</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>12.8</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
@@ -2751,11 +2750,11 @@
       </c>
       <c r="K8" s="9">
         <f t="shared" si="3"/>
-        <v>2.3936000000000002</v>
+        <v>2.2848000000000002</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="4"/>
-        <v>159.28320000000002</v>
+        <v>157.97760000000002</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2773,15 +2772,15 @@
       </c>
       <c r="E9" s="6">
         <f ca="1">DATEDIF(D9, B2, "d")</f>
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="F9" s="7">
         <v>5</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="10">
         <v>48</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
@@ -2795,11 +2794,11 @@
       </c>
       <c r="K9" s="9">
         <f t="shared" si="3"/>
-        <v>8.9759999999999991</v>
+        <v>8.5679999999999996</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="4"/>
-        <v>248.88</v>
+        <v>246.83999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2815,17 +2814,17 @@
       <c r="D10" s="5">
         <v>43304</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <f ca="1">DATEDIF(D10, B2, "d")</f>
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="F10" s="7">
         <v>3</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="10">
         <v>20.5</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
         <v>3.0749999999999997</v>
       </c>
@@ -2839,11 +2838,11 @@
       </c>
       <c r="K10" s="9">
         <f t="shared" si="3"/>
-        <v>3.8335000000000004</v>
+        <v>3.6592500000000001</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="4"/>
-        <v>63.775500000000008</v>
+        <v>63.252750000000006</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2861,7 +2860,7 @@
       </c>
       <c r="E11" s="6">
         <f ca="1">DATEDIF(D11, B2, "d")</f>
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="F11" s="7">
         <v>5</v>
@@ -2869,7 +2868,7 @@
       <c r="G11" s="8">
         <v>45.75</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>6.8624999999999998</v>
       </c>
@@ -2883,11 +2882,11 @@
       </c>
       <c r="K11" s="9">
         <f t="shared" si="3"/>
-        <v>8.5552500000000009</v>
+        <v>8.1663750000000004</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="4"/>
-        <v>237.21375</v>
+        <v>235.26937500000003</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2905,7 +2904,7 @@
       </c>
       <c r="E12" s="6">
         <f ca="1">DATEDIF(D12, B2, "d")</f>
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="F12" s="7">
         <v>10</v>
@@ -2913,7 +2912,7 @@
       <c r="G12" s="8">
         <v>15.25</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>2.2875000000000001</v>
       </c>
@@ -2927,11 +2926,11 @@
       </c>
       <c r="K12" s="9">
         <f t="shared" si="3"/>
-        <v>2.85175</v>
+        <v>2.7221250000000001</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="4"/>
-        <v>158.14250000000001</v>
+        <v>156.84625</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2949,7 +2948,7 @@
       </c>
       <c r="E13" s="6">
         <f ca="1">DATEDIF(D13, B2, "d")</f>
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="F13" s="7">
         <v>15</v>
@@ -2957,11 +2956,11 @@
       <c r="G13" s="8">
         <v>32.5</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>4.875</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
@@ -2971,11 +2970,11 @@
       </c>
       <c r="K13" s="9">
         <f t="shared" si="3"/>
-        <v>5.7915000000000001</v>
+        <v>5.5282499999999999</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="4"/>
-        <v>481.74750000000006</v>
+        <v>477.79874999999998</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2993,7 +2992,7 @@
       </c>
       <c r="E14" s="6">
         <f ca="1">DATEDIF(D14, B2, "d")</f>
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
@@ -3001,7 +3000,7 @@
       <c r="G14" s="8">
         <v>78.5</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="10">
         <f t="shared" si="0"/>
         <v>11.775</v>
       </c>
@@ -3015,11 +3014,11 @@
       </c>
       <c r="K14" s="9">
         <f t="shared" si="3"/>
-        <v>14.679499999999999</v>
+        <v>14.012249999999998</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="4"/>
-        <v>162.809</v>
+        <v>161.47449999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3029,11 +3028,11 @@
       </c>
       <c r="K15" s="4">
         <f>SUM(K6:K14)</f>
-        <v>85.021750000000011</v>
+        <v>81.157124999999994</v>
       </c>
       <c r="L15" s="4">
         <f>SUM(L6:L14)</f>
-        <v>2389.5133500000002</v>
+        <v>2369.9271749999998</v>
       </c>
     </row>
   </sheetData>
@@ -3052,7 +3051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD6F14C-D0C6-4CAC-A7D7-72821DDECE76}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/trabajos practicos/excel/Excel2025-TP3.xlsx
+++ b/trabajos practicos/excel/Excel2025-TP3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\VSCode Projects\microsoftoffice\microsoftoffice\trabajos practicos\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3E21B1-5780-4CE6-AF5C-E7DE022ABF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E906C249-3712-44BF-B324-5675F5B8F7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF580297-8FA9-4B5E-8409-4F3A02463C1D}"/>
+    <workbookView xWindow="75" yWindow="105" windowWidth="16605" windowHeight="15495" activeTab="1" xr2:uid="{DF580297-8FA9-4B5E-8409-4F3A02463C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="1" r:id="rId1"/>
@@ -800,7 +800,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln w="25400">
                 <a:solidFill>
@@ -2538,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE219A-7CCE-40BF-BD89-83A89A696853}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">NOW()</f>
-        <v>45338.558994907406</v>
+        <v>45342.758749652778</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="E6" s="6">
         <f ca="1">DATEDIF(D6, B2, "d")</f>
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="F6" s="7">
         <v>6</v>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="E7" s="6">
         <f ca="1">DATEDIF(D7, B2, "d")</f>
-        <v>2205</v>
+        <v>2209</v>
       </c>
       <c r="F7" s="7">
         <v>4</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="E8" s="6">
         <f ca="1">DATEDIF(D8,B2, "D")</f>
-        <v>2183</v>
+        <v>2187</v>
       </c>
       <c r="F8" s="7">
         <v>12</v>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="E9" s="6">
         <f ca="1">DATEDIF(D9, B2, "d")</f>
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="F9" s="7">
         <v>5</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="E10" s="6">
         <f ca="1">DATEDIF(D10, B2, "d")</f>
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="F10" s="7">
         <v>3</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="E11" s="6">
         <f ca="1">DATEDIF(D11, B2, "d")</f>
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="F11" s="7">
         <v>5</v>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E12" s="6">
         <f ca="1">DATEDIF(D12, B2, "d")</f>
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="F12" s="7">
         <v>10</v>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="E13" s="6">
         <f ca="1">DATEDIF(D13, B2, "d")</f>
-        <v>2209</v>
+        <v>2213</v>
       </c>
       <c r="F13" s="7">
         <v>15</v>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="E14" s="6">
         <f ca="1">DATEDIF(D14, B2, "d")</f>
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
@@ -3051,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD6F14C-D0C6-4CAC-A7D7-72821DDECE76}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
